--- a/data/pca/factorExposure/factorExposure_2017-10-05.xlsx
+++ b/data/pca/factorExposure/factorExposure_2017-10-05.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>factor1</t>
   </si>
@@ -26,6 +26,12 @@
   </si>
   <si>
     <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -692,13 +698,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E104"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -711,61 +717,85 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>0.02386701920496544</v>
+        <v>0.010579984601965</v>
       </c>
       <c r="C2">
-        <v>0.003420556352954143</v>
+        <v>-0.04057803180515626</v>
       </c>
       <c r="D2">
-        <v>-0.01635684555884535</v>
+        <v>-0.02925801964892437</v>
       </c>
       <c r="E2">
-        <v>0.01443750234608227</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>-0.02593390986080493</v>
+      </c>
+      <c r="F2">
+        <v>0.02462712765041277</v>
+      </c>
+      <c r="G2">
+        <v>0.02721566979623811</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B3">
-        <v>0.01243053823038782</v>
+        <v>0.04909019731169757</v>
       </c>
       <c r="C3">
-        <v>0.04643974792511719</v>
+        <v>-0.07774963205404357</v>
       </c>
       <c r="D3">
-        <v>-0.01670815249871567</v>
+        <v>-0.01466965333906179</v>
       </c>
       <c r="E3">
-        <v>0.01287827755618234</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>-0.08512478427707383</v>
+      </c>
+      <c r="F3">
+        <v>0.06959302504915219</v>
+      </c>
+      <c r="G3">
+        <v>0.07269943534929033</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>0.02187399194627874</v>
+        <v>0.0569821666374442</v>
       </c>
       <c r="C4">
-        <v>0.01689050196369438</v>
+        <v>-0.06202564457206901</v>
       </c>
       <c r="D4">
-        <v>-0.06364718930314021</v>
+        <v>-0.02255023120751152</v>
       </c>
       <c r="E4">
-        <v>-0.01198827205710895</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>-0.01032874162813167</v>
+      </c>
+      <c r="F4">
+        <v>0.005750046521191861</v>
+      </c>
+      <c r="G4">
+        <v>0.04959795258591505</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -779,163 +809,223 @@
       <c r="E5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>0.01515682646919313</v>
+        <v>0.03212981175579246</v>
       </c>
       <c r="C6">
-        <v>0.02181898937063495</v>
+        <v>-0.05313231181621744</v>
       </c>
       <c r="D6">
-        <v>-0.08410071066845481</v>
+        <v>-0.01610173036280322</v>
       </c>
       <c r="E6">
-        <v>0.002209217077597013</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>-0.0104531876462146</v>
+      </c>
+      <c r="F6">
+        <v>0.007743154469026879</v>
+      </c>
+      <c r="G6">
+        <v>0.02959843279986622</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>0.0102867107482432</v>
+        <v>0.01861547230953611</v>
       </c>
       <c r="C7">
-        <v>0.004096869758147259</v>
+        <v>-0.03738054196598309</v>
       </c>
       <c r="D7">
-        <v>-0.0403405194642211</v>
+        <v>-0.01304560843328308</v>
       </c>
       <c r="E7">
-        <v>-0.06785507772927264</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>0.01236892450095272</v>
+      </c>
+      <c r="F7">
+        <v>0.003449961664844671</v>
+      </c>
+      <c r="G7">
+        <v>0.08114165536239941</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>-9.456272629387901e-05</v>
+        <v>-0.002665255791155366</v>
       </c>
       <c r="C8">
-        <v>-0.00912291821172322</v>
+        <v>-0.01897943449071898</v>
       </c>
       <c r="D8">
-        <v>-0.01425476931230369</v>
+        <v>-0.003999856754179839</v>
       </c>
       <c r="E8">
-        <v>-0.005637262842751012</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>-0.02210036588571132</v>
+      </c>
+      <c r="F8">
+        <v>0.02217355066690966</v>
+      </c>
+      <c r="G8">
+        <v>0.02399720887075552</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>0.01452541283718372</v>
+        <v>0.02892530334615952</v>
       </c>
       <c r="C9">
-        <v>0.01711219640999486</v>
+        <v>-0.0430983905989425</v>
       </c>
       <c r="D9">
-        <v>-0.04590850895941487</v>
+        <v>-0.01598374426941517</v>
       </c>
       <c r="E9">
-        <v>-0.00208205276485794</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>-0.0108634815448283</v>
+      </c>
+      <c r="F9">
+        <v>0.01414266437041463</v>
+      </c>
+      <c r="G9">
+        <v>0.04070689971039201</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>0.01020588270615854</v>
+        <v>0.09349920570647417</v>
       </c>
       <c r="C10">
-        <v>0.1510929579465143</v>
+        <v>0.1838190554904813</v>
       </c>
       <c r="D10">
-        <v>0.1302081944681706</v>
+        <v>0.01847183329428945</v>
       </c>
       <c r="E10">
-        <v>-0.02021151055958058</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>-0.0143532145246082</v>
+      </c>
+      <c r="F10">
+        <v>-0.01133182159415854</v>
+      </c>
+      <c r="G10">
+        <v>0.04069400431027038</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>0.0002863663102506655</v>
+        <v>0.0336979350315295</v>
       </c>
       <c r="C11">
-        <v>0.00650490212527213</v>
+        <v>-0.05362265120161954</v>
       </c>
       <c r="D11">
-        <v>-0.04494764186073814</v>
+        <v>-0.001834582270622959</v>
       </c>
       <c r="E11">
-        <v>0.01312559179023653</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>-0.0009637843325020007</v>
+      </c>
+      <c r="F11">
+        <v>0.01917040545357187</v>
+      </c>
+      <c r="G11">
+        <v>0.02247801659974057</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B12">
-        <v>0.00549168409764579</v>
+        <v>0.03197131030004615</v>
       </c>
       <c r="C12">
-        <v>0.01421516543994024</v>
+        <v>-0.04507581948239064</v>
       </c>
       <c r="D12">
-        <v>-0.04750720883755233</v>
+        <v>-0.005843447374374108</v>
       </c>
       <c r="E12">
-        <v>0.003971202356798658</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>0.004919558562273494</v>
+      </c>
+      <c r="F12">
+        <v>0.004400938337103204</v>
+      </c>
+      <c r="G12">
+        <v>0.02696740223610702</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B13">
-        <v>0.0215257027897011</v>
+        <v>0.01386050356279812</v>
       </c>
       <c r="C13">
-        <v>0.01585804051584579</v>
+        <v>-0.03293084033086922</v>
       </c>
       <c r="D13">
-        <v>-0.01311161135028628</v>
+        <v>-0.02489698653308621</v>
       </c>
       <c r="E13">
-        <v>0.009853864615981853</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>-0.01963964561900744</v>
+      </c>
+      <c r="F13">
+        <v>0.01523029080708841</v>
+      </c>
+      <c r="G13">
+        <v>0.03422949618472838</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B14">
-        <v>0.007069276363861745</v>
+        <v>0.008874283149173053</v>
       </c>
       <c r="C14">
-        <v>0.01180972666448975</v>
+        <v>-0.02713030257477501</v>
       </c>
       <c r="D14">
-        <v>-0.01814099702326103</v>
+        <v>-0.008668573808318361</v>
       </c>
       <c r="E14">
-        <v>-0.009044914650724718</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+        <v>0.006657898805880962</v>
+      </c>
+      <c r="F14">
+        <v>-0.00111271941281837</v>
+      </c>
+      <c r="G14">
+        <v>0.0409009569053625</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -949,27 +1039,39 @@
       <c r="E15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:5">
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B16">
-        <v>0.0006932096959280637</v>
+        <v>0.03163986131087419</v>
       </c>
       <c r="C16">
-        <v>0.01113592847379399</v>
+        <v>-0.04336309172481393</v>
       </c>
       <c r="D16">
-        <v>-0.05138743356852155</v>
+        <v>-0.001365956627874551</v>
       </c>
       <c r="E16">
-        <v>0.007421837661702707</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+        <v>-0.003773247717987136</v>
+      </c>
+      <c r="F16">
+        <v>0.0091644119974138</v>
+      </c>
+      <c r="G16">
+        <v>0.025102550537269</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -983,10 +1085,16 @@
       <c r="E17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1000,61 +1108,85 @@
       <c r="E18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B19">
-        <v>0.0132521806920129</v>
+        <v>0.02635238137739109</v>
       </c>
       <c r="C19">
-        <v>0.02803508633061151</v>
+        <v>-0.05043695499932772</v>
       </c>
       <c r="D19">
-        <v>-0.03015290661321478</v>
+        <v>-0.01608787838713316</v>
       </c>
       <c r="E19">
-        <v>-0.001684697196346564</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
+        <v>-0.04934090528093055</v>
+      </c>
+      <c r="F19">
+        <v>0.03104609666697262</v>
+      </c>
+      <c r="G19">
+        <v>0.04985956622399914</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B20">
-        <v>0.0103646798890308</v>
+        <v>0.01223049335883268</v>
       </c>
       <c r="C20">
-        <v>0.005770104573211306</v>
+        <v>-0.03472657804912713</v>
       </c>
       <c r="D20">
-        <v>-0.01432559189172605</v>
+        <v>-0.01310918934332105</v>
       </c>
       <c r="E20">
-        <v>0.002751230693636553</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+        <v>-0.02156292459664384</v>
+      </c>
+      <c r="F20">
+        <v>-0.001058461165260804</v>
+      </c>
+      <c r="G20">
+        <v>0.03931352302021657</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B21">
-        <v>0.01397190388472282</v>
+        <v>0.01598255572044416</v>
       </c>
       <c r="C21">
-        <v>0.03760779541460095</v>
+        <v>-0.03535637246320547</v>
       </c>
       <c r="D21">
-        <v>-0.02010226068132897</v>
+        <v>-0.01614033780997999</v>
       </c>
       <c r="E21">
-        <v>-0.01758071849880901</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
+        <v>-0.02939473758033534</v>
+      </c>
+      <c r="F21">
+        <v>0.01063217703076823</v>
+      </c>
+      <c r="G21">
+        <v>0.06104724709381267</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1068,10 +1200,16 @@
       <c r="E22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:5">
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1085,61 +1223,85 @@
       <c r="E23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:5">
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B24">
-        <v>0.004878797799256696</v>
+        <v>0.02569808305579837</v>
       </c>
       <c r="C24">
-        <v>0.006925918495733619</v>
+        <v>-0.04625136247590127</v>
       </c>
       <c r="D24">
-        <v>-0.04529582046721419</v>
+        <v>-0.006751367167622225</v>
       </c>
       <c r="E24">
-        <v>0.007588459812107599</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
+        <v>0.0007428554834176861</v>
+      </c>
+      <c r="F24">
+        <v>0.01585772011649426</v>
+      </c>
+      <c r="G24">
+        <v>0.02721394435752043</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B25">
-        <v>0.01113097427805828</v>
+        <v>0.04241874238046073</v>
       </c>
       <c r="C25">
-        <v>0.0230879224172552</v>
+        <v>-0.05364088001840533</v>
       </c>
       <c r="D25">
-        <v>-0.04416261300950777</v>
+        <v>-0.01066144082956494</v>
       </c>
       <c r="E25">
-        <v>0.006610928226827692</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
+        <v>0.007809432813243018</v>
+      </c>
+      <c r="F25">
+        <v>0.009809893609460061</v>
+      </c>
+      <c r="G25">
+        <v>0.03264153756520208</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B26">
-        <v>0.02261145986082324</v>
+        <v>0.01097072137677542</v>
       </c>
       <c r="C26">
-        <v>0.007958256798436097</v>
+        <v>-0.009230833038918319</v>
       </c>
       <c r="D26">
-        <v>0.003701245880309205</v>
+        <v>-0.02376855408715784</v>
       </c>
       <c r="E26">
-        <v>-0.00791030897109138</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
+        <v>-0.006130149382427147</v>
+      </c>
+      <c r="F26">
+        <v>0.002854658529482515</v>
+      </c>
+      <c r="G26">
+        <v>0.03225930452334261</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1153,129 +1315,177 @@
       <c r="E27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:5">
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B28">
-        <v>0.02818257939986227</v>
+        <v>0.1181804616924617</v>
       </c>
       <c r="C28">
-        <v>0.2235154612666027</v>
+        <v>0.2235449427774465</v>
       </c>
       <c r="D28">
-        <v>0.1824717875135038</v>
+        <v>0.009227854824476378</v>
       </c>
       <c r="E28">
-        <v>-0.0319898443139966</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
+        <v>-0.002291000200539652</v>
+      </c>
+      <c r="F28">
+        <v>-0.01058735247953878</v>
+      </c>
+      <c r="G28">
+        <v>0.05953377623722095</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B29">
-        <v>0.007347705990265523</v>
+        <v>0.0135827766950701</v>
       </c>
       <c r="C29">
-        <v>0.01726443087283341</v>
+        <v>-0.02158100952225321</v>
       </c>
       <c r="D29">
-        <v>-0.01517418245249699</v>
+        <v>-0.007415804257500541</v>
       </c>
       <c r="E29">
-        <v>-0.004774618798685309</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
+        <v>0.008161774543629135</v>
+      </c>
+      <c r="F29">
+        <v>-0.01040922076396033</v>
+      </c>
+      <c r="G29">
+        <v>0.03091510413816822</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B30">
-        <v>0.02305289405039751</v>
+        <v>0.04490016513815849</v>
       </c>
       <c r="C30">
-        <v>0.001904515579726916</v>
+        <v>-0.06859933260445204</v>
       </c>
       <c r="D30">
-        <v>-0.06383584220394621</v>
+        <v>-0.02728852926071782</v>
       </c>
       <c r="E30">
-        <v>0.06225855813196558</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
+        <v>-0.03211269821863464</v>
+      </c>
+      <c r="F30">
+        <v>0.04731680625808433</v>
+      </c>
+      <c r="G30">
+        <v>0.008710403911689254</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B31">
-        <v>0.007256749202428516</v>
+        <v>0.04550877486093887</v>
       </c>
       <c r="C31">
-        <v>0.04754323709895369</v>
+        <v>-0.03198887818922581</v>
       </c>
       <c r="D31">
-        <v>-0.04214294130369987</v>
+        <v>-0.003194029869980637</v>
       </c>
       <c r="E31">
-        <v>-0.001892512418036966</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
+        <v>0.007423144279684647</v>
+      </c>
+      <c r="F31">
+        <v>-0.03744820668173866</v>
+      </c>
+      <c r="G31">
+        <v>0.02731301258247845</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B32">
-        <v>-0.006947981110953005</v>
+        <v>0.002340184044113858</v>
       </c>
       <c r="C32">
-        <v>0.01455392795039044</v>
+        <v>-0.03615705100323031</v>
       </c>
       <c r="D32">
-        <v>-0.007418135323310886</v>
+        <v>0.004004513580971778</v>
       </c>
       <c r="E32">
-        <v>-0.02636589054287713</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
+        <v>-0.007916169210496008</v>
+      </c>
+      <c r="F32">
+        <v>0.0542327482381381</v>
+      </c>
+      <c r="G32">
+        <v>0.05740745337544438</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B33">
-        <v>0.01230583939138269</v>
+        <v>0.02640803827778946</v>
       </c>
       <c r="C33">
-        <v>0.02488097647905853</v>
+        <v>-0.04916532933546638</v>
       </c>
       <c r="D33">
-        <v>-0.02261110627640571</v>
+        <v>-0.01447925580252526</v>
       </c>
       <c r="E33">
-        <v>0.02610038992455115</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
+        <v>-0.01931173783378144</v>
+      </c>
+      <c r="F33">
+        <v>0.02745189859614957</v>
+      </c>
+      <c r="G33">
+        <v>0.03606323345756015</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B34">
-        <v>-0.004821794808339713</v>
+        <v>0.04370159734144247</v>
       </c>
       <c r="C34">
-        <v>0.02008678825713389</v>
+        <v>-0.05454239012838667</v>
       </c>
       <c r="D34">
-        <v>-0.05091916568458418</v>
+        <v>0.005308055611089886</v>
       </c>
       <c r="E34">
-        <v>-0.0004998550226795437</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
+        <v>0.01046543064407134</v>
+      </c>
+      <c r="F34">
+        <v>0.01903257837210152</v>
+      </c>
+      <c r="G34">
+        <v>0.0382598542151663</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1289,27 +1499,39 @@
       <c r="E35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:5">
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B36">
-        <v>0.01175588914386603</v>
+        <v>0.01139296425542049</v>
       </c>
       <c r="C36">
-        <v>0.01766363782634283</v>
+        <v>-0.007337950937868316</v>
       </c>
       <c r="D36">
-        <v>-0.001775780235817812</v>
+        <v>-0.01143539011413626</v>
       </c>
       <c r="E36">
-        <v>-0.002179158973539591</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
+        <v>-0.001266243756160124</v>
+      </c>
+      <c r="F36">
+        <v>-0.002149704551882459</v>
+      </c>
+      <c r="G36">
+        <v>0.02542703661861659</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1323,129 +1545,177 @@
       <c r="E37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:5">
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B38">
-        <v>-0.006227796380441256</v>
+        <v>0.03202743467542522</v>
       </c>
       <c r="C38">
-        <v>0.02632716301201361</v>
+        <v>-0.02576804879464974</v>
       </c>
       <c r="D38">
-        <v>-0.02298360061586911</v>
+        <v>0.007843068350351867</v>
       </c>
       <c r="E38">
-        <v>-0.0005076648574457034</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
+        <v>-0.003892278889316897</v>
+      </c>
+      <c r="F38">
+        <v>-0.004823222268567877</v>
+      </c>
+      <c r="G38">
+        <v>0.03391973854722001</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B39">
-        <v>0.005973149236745023</v>
+        <v>0.03158248704487583</v>
       </c>
       <c r="C39">
-        <v>-0.01734926393758926</v>
+        <v>-0.08083206180127284</v>
       </c>
       <c r="D39">
-        <v>-0.09552558348226463</v>
+        <v>-0.01213739594057525</v>
       </c>
       <c r="E39">
-        <v>0.0170445576022077</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
+        <v>-0.02045115175457322</v>
+      </c>
+      <c r="F39">
+        <v>0.0388502089103273</v>
+      </c>
+      <c r="G39">
+        <v>0.02878581811291454</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B40">
-        <v>0.01061964248545422</v>
+        <v>0.02130323319482558</v>
       </c>
       <c r="C40">
-        <v>0.01670798001526194</v>
+        <v>-0.03148928586801261</v>
       </c>
       <c r="D40">
-        <v>-0.04012077641005709</v>
+        <v>-0.0130175853526752</v>
       </c>
       <c r="E40">
-        <v>0.01162381195224634</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
+        <v>-0.01793106538983137</v>
+      </c>
+      <c r="F40">
+        <v>0.0195745863879413</v>
+      </c>
+      <c r="G40">
+        <v>0.02585527152291447</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B41">
-        <v>0.005195515249745826</v>
+        <v>0.01286922940622983</v>
       </c>
       <c r="C41">
-        <v>0.02061720341034428</v>
+        <v>0.001094831176730367</v>
       </c>
       <c r="D41">
-        <v>0.006967047187563247</v>
+        <v>-0.003541620983432955</v>
       </c>
       <c r="E41">
-        <v>-0.002993290887773549</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
+        <v>0.001682855241337154</v>
+      </c>
+      <c r="F41">
+        <v>-0.002310915412209088</v>
+      </c>
+      <c r="G41">
+        <v>0.01728335058674377</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B42">
-        <v>0.09433590363194259</v>
+        <v>0.01939966898843032</v>
       </c>
       <c r="C42">
-        <v>0.02985072463632561</v>
+        <v>-0.04625680157594404</v>
       </c>
       <c r="D42">
-        <v>-0.2293888272121379</v>
+        <v>-0.09647630897955162</v>
       </c>
       <c r="E42">
-        <v>0.2919155318535973</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5">
+        <v>-0.04331747163878477</v>
+      </c>
+      <c r="F42">
+        <v>-0.04358362787733445</v>
+      </c>
+      <c r="G42">
+        <v>-0.1734174213132981</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B43">
-        <v>0.006014937917026764</v>
+        <v>0.02850279413322173</v>
       </c>
       <c r="C43">
-        <v>0.01972315238348849</v>
+        <v>-0.008484046237065465</v>
       </c>
       <c r="D43">
-        <v>0.01259139280468519</v>
+        <v>-0.003843382149582468</v>
       </c>
       <c r="E43">
-        <v>0.000577261192765579</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
+        <v>-0.004111642588853083</v>
+      </c>
+      <c r="F43">
+        <v>-0.003366636350705104</v>
+      </c>
+      <c r="G43">
+        <v>0.0234071073711067</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B44">
-        <v>0.002890922044147176</v>
+        <v>0.0171894291663756</v>
       </c>
       <c r="C44">
-        <v>-0.001753458447677559</v>
+        <v>-0.04853245139484873</v>
       </c>
       <c r="D44">
-        <v>-0.03015747759470438</v>
+        <v>-0.006164832330673535</v>
       </c>
       <c r="E44">
-        <v>-0.0004189201414200306</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
+        <v>-0.01600433369771674</v>
+      </c>
+      <c r="F44">
+        <v>0.009574088499949968</v>
+      </c>
+      <c r="G44">
+        <v>0.03932052537700557</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1459,61 +1729,85 @@
       <c r="E45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:5">
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B46">
-        <v>0.01065138446133953</v>
+        <v>0.006351393921373559</v>
       </c>
       <c r="C46">
-        <v>0.01619024575730545</v>
+        <v>-0.01718690570069481</v>
       </c>
       <c r="D46">
-        <v>-0.01775318852871065</v>
+        <v>-0.01171198374008351</v>
       </c>
       <c r="E46">
-        <v>0.003898468240092888</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
+        <v>0.001276058391388214</v>
+      </c>
+      <c r="F46">
+        <v>-0.0139082477775334</v>
+      </c>
+      <c r="G46">
+        <v>0.02773984325057874</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B47">
-        <v>0.001052546681422545</v>
+        <v>0.07396829807047361</v>
       </c>
       <c r="C47">
-        <v>0.06093990352394647</v>
+        <v>-0.06541175025064037</v>
       </c>
       <c r="D47">
-        <v>-0.04846535977467872</v>
+        <v>0.005310588665229748</v>
       </c>
       <c r="E47">
-        <v>0.006628008596248949</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
+        <v>0.01055488304319849</v>
+      </c>
+      <c r="F47">
+        <v>-0.05824680556583688</v>
+      </c>
+      <c r="G47">
+        <v>0.02506311188196299</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B48">
-        <v>0.002580355906201949</v>
+        <v>0.02183407896836024</v>
       </c>
       <c r="C48">
-        <v>0.0276563205630462</v>
+        <v>-0.00933576062343971</v>
       </c>
       <c r="D48">
-        <v>-0.01131933519463509</v>
+        <v>-0.0007079890252668958</v>
       </c>
       <c r="E48">
-        <v>0.000335272475490016</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
+        <v>0.002065444250071586</v>
+      </c>
+      <c r="F48">
+        <v>-0.01391246810675152</v>
+      </c>
+      <c r="G48">
+        <v>0.03052421866715397</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1527,44 +1821,62 @@
       <c r="E49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:5">
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B50">
-        <v>0.002273943838444125</v>
+        <v>0.0788967739084558</v>
       </c>
       <c r="C50">
-        <v>0.05007005500519779</v>
+        <v>-0.06720070956449838</v>
       </c>
       <c r="D50">
-        <v>-0.06267903323300375</v>
+        <v>0.003748247001029126</v>
       </c>
       <c r="E50">
-        <v>-0.01827301258616679</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
+        <v>0.0112522554724496</v>
+      </c>
+      <c r="F50">
+        <v>-0.05690394562882664</v>
+      </c>
+      <c r="G50">
+        <v>0.0480708284151555</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B51">
-        <v>0.007115105643950102</v>
+        <v>0.01147286440300471</v>
       </c>
       <c r="C51">
-        <v>0.0204556829001671</v>
+        <v>-0.02725262462210873</v>
       </c>
       <c r="D51">
-        <v>0.01168760767590878</v>
+        <v>-0.009073471767986681</v>
       </c>
       <c r="E51">
-        <v>-0.008901190940670631</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
+        <v>-0.007380478805145983</v>
+      </c>
+      <c r="F51">
+        <v>0.0254871770639213</v>
+      </c>
+      <c r="G51">
+        <v>0.05452143538463905</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1578,163 +1890,223 @@
       <c r="E52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:5">
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B53">
-        <v>0.003841075193248832</v>
+        <v>0.09172332267197836</v>
       </c>
       <c r="C53">
-        <v>0.0792285170351107</v>
+        <v>-0.08188305279710272</v>
       </c>
       <c r="D53">
-        <v>-0.1047366134325824</v>
+        <v>0.005187250266578682</v>
       </c>
       <c r="E53">
-        <v>0.004203690207794345</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
+        <v>0.03996054684948212</v>
+      </c>
+      <c r="F53">
+        <v>-0.06572172508179665</v>
+      </c>
+      <c r="G53">
+        <v>0.02569152458139798</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B54">
-        <v>-0.001198455606182943</v>
+        <v>0.02928465468836373</v>
       </c>
       <c r="C54">
-        <v>0.03478292265135485</v>
+        <v>-0.008757520315448292</v>
       </c>
       <c r="D54">
-        <v>0.01090650502029452</v>
+        <v>0.003085903911205274</v>
       </c>
       <c r="E54">
-        <v>-0.01208684680353633</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
+        <v>-0.002491230014008046</v>
+      </c>
+      <c r="F54">
+        <v>-0.0007774507710279974</v>
+      </c>
+      <c r="G54">
+        <v>0.03626322738280645</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B55">
-        <v>0.001275836189495566</v>
+        <v>0.07192160865049517</v>
       </c>
       <c r="C55">
-        <v>0.05702960696184783</v>
+        <v>-0.07436083572002698</v>
       </c>
       <c r="D55">
-        <v>-0.08851590012305185</v>
+        <v>0.004661156131426134</v>
       </c>
       <c r="E55">
-        <v>0.01469170900765071</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
+        <v>0.02694575851957517</v>
+      </c>
+      <c r="F55">
+        <v>-0.05970359379883926</v>
+      </c>
+      <c r="G55">
+        <v>0.01068747195290755</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B56">
-        <v>0.0004134360789050322</v>
+        <v>0.1418519884487363</v>
       </c>
       <c r="C56">
-        <v>0.1000819184735819</v>
+        <v>-0.1052750654680094</v>
       </c>
       <c r="D56">
-        <v>-0.1322651622550787</v>
+        <v>0.01371858503503543</v>
       </c>
       <c r="E56">
-        <v>0.01556715320120369</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
+        <v>0.03810826737095589</v>
+      </c>
+      <c r="F56">
+        <v>-0.09754734248063575</v>
+      </c>
+      <c r="G56">
+        <v>-0.001122768303887097</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B57">
-        <v>0.02295659660031936</v>
+        <v>0.01111344114725199</v>
       </c>
       <c r="C57">
-        <v>0.01914054882935173</v>
+        <v>-0.01088100294482924</v>
       </c>
       <c r="D57">
-        <v>-0.04029628915602515</v>
+        <v>-0.02362064625689682</v>
       </c>
       <c r="E57">
-        <v>0.01377873714160744</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5">
+        <v>-0.02661232735474389</v>
+      </c>
+      <c r="F57">
+        <v>0.01758786840754634</v>
+      </c>
+      <c r="G57">
+        <v>0.02004163007394403</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B58">
-        <v>0.009820129192688933</v>
+        <v>0.08436650976429337</v>
       </c>
       <c r="C58">
-        <v>0.0914879055414953</v>
+        <v>-0.05527218921215357</v>
       </c>
       <c r="D58">
-        <v>-0.1028784987721511</v>
+        <v>-0.01564750821585596</v>
       </c>
       <c r="E58">
-        <v>0.2185625017204051</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
+        <v>-0.957682801170066</v>
+      </c>
+      <c r="F58">
+        <v>-0.1665930699512085</v>
+      </c>
+      <c r="G58">
+        <v>0.007683803977260741</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B59">
-        <v>0.02436487734996569</v>
+        <v>0.1557343843099168</v>
       </c>
       <c r="C59">
-        <v>0.2311697319872668</v>
+        <v>0.2084521612243243</v>
       </c>
       <c r="D59">
-        <v>0.1816928788851002</v>
+        <v>0.01584464237241323</v>
       </c>
       <c r="E59">
-        <v>-0.007139123578520241</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
+        <v>-0.01369755869640431</v>
+      </c>
+      <c r="F59">
+        <v>0.01002501207219125</v>
+      </c>
+      <c r="G59">
+        <v>0.02161073326083179</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B60">
-        <v>0.03023615605749219</v>
+        <v>0.2869435082314589</v>
       </c>
       <c r="C60">
-        <v>0.1598862811440208</v>
+        <v>-0.09666131500496433</v>
       </c>
       <c r="D60">
-        <v>-0.08240034170471848</v>
+        <v>-0.009804164514443792</v>
       </c>
       <c r="E60">
-        <v>0.05175098257735317</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
+        <v>0.02404537793470235</v>
+      </c>
+      <c r="F60">
+        <v>0.3746008647943468</v>
+      </c>
+      <c r="G60">
+        <v>-0.0821126515577956</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B61">
-        <v>0.002801839233721653</v>
+        <v>0.03246821815653283</v>
       </c>
       <c r="C61">
-        <v>0.007942686775591736</v>
+        <v>-0.06463774916067712</v>
       </c>
       <c r="D61">
-        <v>-0.06726361416180952</v>
+        <v>-0.005367957363357593</v>
       </c>
       <c r="E61">
-        <v>0.01010899109472277</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
+        <v>-0.008166862126604012</v>
+      </c>
+      <c r="F61">
+        <v>0.02097475614483804</v>
+      </c>
+      <c r="G61">
+        <v>0.02697323024416523</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1748,129 +2120,177 @@
       <c r="E62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:5">
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B63">
-        <v>0.007218506274888335</v>
+        <v>0.01132953120357801</v>
       </c>
       <c r="C63">
-        <v>0.007325220079374791</v>
+        <v>-0.02864509300700077</v>
       </c>
       <c r="D63">
-        <v>-0.008674492988904768</v>
+        <v>-0.008140366819942483</v>
       </c>
       <c r="E63">
-        <v>-0.007168415768420912</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
+        <v>0.007386029626829912</v>
+      </c>
+      <c r="F63">
+        <v>-0.01830426273892785</v>
+      </c>
+      <c r="G63">
+        <v>0.03655039582960111</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B64">
-        <v>0.006735681171647904</v>
+        <v>0.04937780992037812</v>
       </c>
       <c r="C64">
-        <v>0.03143758008463871</v>
+        <v>-0.03900550276749516</v>
       </c>
       <c r="D64">
-        <v>-0.06557149177729266</v>
+        <v>-0.005027710664414804</v>
       </c>
       <c r="E64">
-        <v>0.0127399494723858</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
+        <v>0.007177777476067109</v>
+      </c>
+      <c r="F64">
+        <v>0.003655021272326407</v>
+      </c>
+      <c r="G64">
+        <v>0.0244644592158477</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B65">
-        <v>0.01751634885523368</v>
+        <v>0.08289332275027224</v>
       </c>
       <c r="C65">
-        <v>0.02753514005307752</v>
+        <v>-0.06491228573549555</v>
       </c>
       <c r="D65">
-        <v>-0.09417927627238754</v>
+        <v>-0.01503498075357813</v>
       </c>
       <c r="E65">
-        <v>0.004855119973900494</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
+        <v>-0.01056639388589336</v>
+      </c>
+      <c r="F65">
+        <v>0.02811579571227188</v>
+      </c>
+      <c r="G65">
+        <v>0.01353484335544205</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B66">
-        <v>0.00534798605331291</v>
+        <v>0.05261874603489865</v>
       </c>
       <c r="C66">
-        <v>-0.006912431508170848</v>
+        <v>-0.1142166290895852</v>
       </c>
       <c r="D66">
-        <v>-0.1177344654025851</v>
+        <v>-0.01151697462089041</v>
       </c>
       <c r="E66">
-        <v>0.03304161301505851</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
+        <v>-0.02095508862747217</v>
+      </c>
+      <c r="F66">
+        <v>0.04634773433294612</v>
+      </c>
+      <c r="G66">
+        <v>0.02098933224794707</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B67">
-        <v>-0.00132568476023891</v>
+        <v>0.05473038256186662</v>
       </c>
       <c r="C67">
-        <v>0.04373542147853741</v>
+        <v>-0.03077891624890346</v>
       </c>
       <c r="D67">
-        <v>-0.02684242703393739</v>
+        <v>0.006201943823467279</v>
       </c>
       <c r="E67">
-        <v>0.001443534828302045</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
+        <v>0.003959700636406951</v>
+      </c>
+      <c r="F67">
+        <v>-0.006646591610693644</v>
+      </c>
+      <c r="G67">
+        <v>0.03172152272800279</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B68">
-        <v>0.0418569195905444</v>
+        <v>0.1390867730931391</v>
       </c>
       <c r="C68">
-        <v>0.2012880340307133</v>
+        <v>0.2663580011319415</v>
       </c>
       <c r="D68">
-        <v>0.1755064363111173</v>
+        <v>-0.001991838612459746</v>
       </c>
       <c r="E68">
-        <v>-0.003787165949425724</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
+        <v>-0.01350854702283579</v>
+      </c>
+      <c r="F68">
+        <v>-0.03610154727396421</v>
+      </c>
+      <c r="G68">
+        <v>0.02167155920264534</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B69">
-        <v>-0.003440466844753251</v>
+        <v>0.07749201897430495</v>
       </c>
       <c r="C69">
-        <v>0.04513170787226205</v>
+        <v>-0.06598657785845215</v>
       </c>
       <c r="D69">
-        <v>-0.05571877420355298</v>
+        <v>0.009200254831896812</v>
       </c>
       <c r="E69">
-        <v>0.001813441534695712</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
+        <v>0.03049522436275038</v>
+      </c>
+      <c r="F69">
+        <v>-0.04394223424919898</v>
+      </c>
+      <c r="G69">
+        <v>0.02639072826763427</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1884,146 +2304,200 @@
       <c r="E70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:5">
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B71">
-        <v>0.02951392506692364</v>
+        <v>0.1369612651331389</v>
       </c>
       <c r="C71">
-        <v>0.1797502687375562</v>
+        <v>0.2286506817313177</v>
       </c>
       <c r="D71">
-        <v>0.1573731560116669</v>
+        <v>0.007203492220709709</v>
       </c>
       <c r="E71">
-        <v>-0.0159473942703262</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
+        <v>-0.02441859652867033</v>
+      </c>
+      <c r="F71">
+        <v>-0.009670996262524484</v>
+      </c>
+      <c r="G71">
+        <v>0.03225144578667082</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B72">
-        <v>-0.002713605045558472</v>
+        <v>0.08169296620851972</v>
       </c>
       <c r="C72">
-        <v>0.04564629735743563</v>
+        <v>-0.07384392096014676</v>
       </c>
       <c r="D72">
-        <v>-0.1409505440379268</v>
+        <v>0.008525187539144724</v>
       </c>
       <c r="E72">
-        <v>0.03683260528417727</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5">
+        <v>0.0143767961110306</v>
+      </c>
+      <c r="F72">
+        <v>0.03802248550469033</v>
+      </c>
+      <c r="G72">
+        <v>0.008413096135848801</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B73">
-        <v>0.04441163734994327</v>
+        <v>0.3947257045243216</v>
       </c>
       <c r="C73">
-        <v>0.1962524053160346</v>
+        <v>-0.107071991302343</v>
       </c>
       <c r="D73">
-        <v>-0.1473784778539018</v>
+        <v>-0.01469796528532497</v>
       </c>
       <c r="E73">
-        <v>0.1177582193769368</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5">
+        <v>-0.02384967862660094</v>
+      </c>
+      <c r="F73">
+        <v>0.5504816259257725</v>
+      </c>
+      <c r="G73">
+        <v>-0.1327721914455583</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B74">
-        <v>-0.001267183170140953</v>
+        <v>0.1164767984686337</v>
       </c>
       <c r="C74">
-        <v>0.0915423308273422</v>
+        <v>-0.1194455236895417</v>
       </c>
       <c r="D74">
-        <v>-0.1346967134053645</v>
+        <v>0.01046607913449302</v>
       </c>
       <c r="E74">
-        <v>0.02391086025066896</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5">
+        <v>0.02294452723394673</v>
+      </c>
+      <c r="F74">
+        <v>-0.08421880135195337</v>
+      </c>
+      <c r="G74">
+        <v>0.0313093129035909</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B75">
-        <v>0.001121304178245859</v>
+        <v>0.2578921348563887</v>
       </c>
       <c r="C75">
-        <v>0.221548357042988</v>
+        <v>-0.1555556047992463</v>
       </c>
       <c r="D75">
-        <v>-0.2290354619789509</v>
+        <v>0.03160497065175025</v>
       </c>
       <c r="E75">
-        <v>0.0498778922604037</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5">
+        <v>0.05730243034673452</v>
+      </c>
+      <c r="F75">
+        <v>-0.2125287866236204</v>
+      </c>
+      <c r="G75">
+        <v>-0.04494373579689692</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B76">
-        <v>-0.005233499523608707</v>
+        <v>0.1341757848365052</v>
       </c>
       <c r="C76">
-        <v>0.1590138928411549</v>
+        <v>-0.1265396318312536</v>
       </c>
       <c r="D76">
-        <v>-0.2129090308694537</v>
+        <v>0.02150434076479248</v>
       </c>
       <c r="E76">
-        <v>0.01261706446501718</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5">
+        <v>0.05354221008543239</v>
+      </c>
+      <c r="F76">
+        <v>-0.1430546167781481</v>
+      </c>
+      <c r="G76">
+        <v>0.01149951371311931</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B77">
-        <v>0.01187808112012214</v>
+        <v>0.061925816889048</v>
       </c>
       <c r="C77">
-        <v>0.01392522015573563</v>
+        <v>-0.06553371543853552</v>
       </c>
       <c r="D77">
-        <v>-0.06764128702680523</v>
+        <v>-0.0129475474014512</v>
       </c>
       <c r="E77">
-        <v>0.01167281048357807</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5">
+        <v>-0.04604725397657676</v>
+      </c>
+      <c r="F77">
+        <v>0.01814093873868607</v>
+      </c>
+      <c r="G77">
+        <v>0.05336155344529403</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B78">
-        <v>0.003947356533201442</v>
+        <v>0.03969665739851862</v>
       </c>
       <c r="C78">
-        <v>0.01338597694974133</v>
+        <v>-0.0504348084356559</v>
       </c>
       <c r="D78">
-        <v>-0.06325920650312586</v>
+        <v>-0.005609078528080315</v>
       </c>
       <c r="E78">
-        <v>0.006913055285138007</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5">
+        <v>-0.01910847785865829</v>
+      </c>
+      <c r="F78">
+        <v>0.04386460919495066</v>
+      </c>
+      <c r="G78">
+        <v>0.03738137733461221</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2037,78 +2511,108 @@
       <c r="E79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:5">
+      <c r="F79">
+        <v>0</v>
+      </c>
+      <c r="G79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B80">
-        <v>0.01469645744707508</v>
+        <v>0.05692476737693453</v>
       </c>
       <c r="C80">
-        <v>0.1463834559388738</v>
+        <v>-0.06793811747881753</v>
       </c>
       <c r="D80">
-        <v>-0.2485885758251769</v>
+        <v>-0.01283591171767129</v>
       </c>
       <c r="E80">
-        <v>-0.8916577364047501</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5">
+        <v>0.04211928334466909</v>
+      </c>
+      <c r="F80">
+        <v>0.038959818972552</v>
+      </c>
+      <c r="G80">
+        <v>0.9096528327261866</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B81">
-        <v>0.001620603809624211</v>
+        <v>0.1448960378611229</v>
       </c>
       <c r="C81">
-        <v>0.1399687732379697</v>
+        <v>-0.09545686570374948</v>
       </c>
       <c r="D81">
-        <v>-0.1497675026049139</v>
+        <v>0.01614382130071915</v>
       </c>
       <c r="E81">
-        <v>0.02339485212065002</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5">
+        <v>0.03212003847167624</v>
+      </c>
+      <c r="F81">
+        <v>-0.1374539071769497</v>
+      </c>
+      <c r="G81">
+        <v>0.01069098032439803</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B82">
-        <v>0</v>
+        <v>0.05336401712138164</v>
       </c>
       <c r="C82">
-        <v>0</v>
+        <v>-0.03938339222653631</v>
       </c>
       <c r="D82">
-        <v>0</v>
+        <v>0.002824318275394399</v>
       </c>
       <c r="E82">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5">
+        <v>0.02150187893274623</v>
+      </c>
+      <c r="F82">
+        <v>-0.009427979080532852</v>
+      </c>
+      <c r="G82">
+        <v>-0.006025055576692438</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B83">
-        <v>0.006605375893306484</v>
+        <v>0.02805116299958627</v>
       </c>
       <c r="C83">
-        <v>0.02978029150881645</v>
+        <v>-0.02087129812039825</v>
       </c>
       <c r="D83">
-        <v>-0.02336213799432519</v>
+        <v>-0.005029480096695445</v>
       </c>
       <c r="E83">
-        <v>0.008810660944014019</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5">
+        <v>-0.02391697076137702</v>
+      </c>
+      <c r="F83">
+        <v>0.01850000271001533</v>
+      </c>
+      <c r="G83">
+        <v>0.0230876320970187</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2122,197 +2626,269 @@
       <c r="E84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:5">
+      <c r="F84">
+        <v>0</v>
+      </c>
+      <c r="G84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B85">
-        <v>0.009067222194888246</v>
+        <v>0.2316638743040403</v>
       </c>
       <c r="C85">
-        <v>0.1717332166363058</v>
+        <v>-0.153736724389708</v>
       </c>
       <c r="D85">
-        <v>-0.241826016453934</v>
+        <v>0.01974682001709</v>
       </c>
       <c r="E85">
-        <v>0.05416519563326575</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5">
+        <v>0.1052227437940076</v>
+      </c>
+      <c r="F85">
+        <v>-0.1886807323265158</v>
+      </c>
+      <c r="G85">
+        <v>-0.0646907551138316</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B86">
-        <v>0.006590413497958302</v>
+        <v>0.01197624572086462</v>
       </c>
       <c r="C86">
-        <v>0.02301793092375333</v>
+        <v>-0.01524567020518417</v>
       </c>
       <c r="D86">
-        <v>-0.007954546484454286</v>
+        <v>-0.009641863219986722</v>
       </c>
       <c r="E86">
-        <v>0.02224167308346611</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5">
+        <v>-0.02826724229491958</v>
+      </c>
+      <c r="F86">
+        <v>0.03656790183566691</v>
+      </c>
+      <c r="G86">
+        <v>0.05337898314348941</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B87">
-        <v>0.007339713575106629</v>
+        <v>0.02048949207792682</v>
       </c>
       <c r="C87">
-        <v>0.01137152769302618</v>
+        <v>-0.02606112241395434</v>
       </c>
       <c r="D87">
-        <v>-0.04012584567703774</v>
+        <v>-0.01072909735573332</v>
       </c>
       <c r="E87">
-        <v>0.01016742801136348</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5">
+        <v>-0.08537323973632456</v>
+      </c>
+      <c r="F87">
+        <v>0.03324415800538601</v>
+      </c>
+      <c r="G87">
+        <v>0.04738979668331767</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B88">
-        <v>0.02656745285917698</v>
+        <v>0.09041230535450857</v>
       </c>
       <c r="C88">
-        <v>0.04716144560095445</v>
+        <v>-0.06185178990240044</v>
       </c>
       <c r="D88">
-        <v>-0.02926754025211769</v>
+        <v>-0.02180864668972873</v>
       </c>
       <c r="E88">
-        <v>0.008341047002728877</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5">
+        <v>0.01563004456378283</v>
+      </c>
+      <c r="F88">
+        <v>-0.01167948985459669</v>
+      </c>
+      <c r="G88">
+        <v>0.02322924054716373</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B89">
-        <v>0.05671166727855149</v>
+        <v>0.229828448648456</v>
       </c>
       <c r="C89">
-        <v>0.3480190468888325</v>
+        <v>0.3665628192997309</v>
       </c>
       <c r="D89">
-        <v>0.2746948934673438</v>
+        <v>0.008003389317695075</v>
       </c>
       <c r="E89">
-        <v>-0.005866705392619377</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5">
+        <v>0.01917153176714646</v>
+      </c>
+      <c r="F89">
+        <v>-0.0319764196379838</v>
+      </c>
+      <c r="G89">
+        <v>0.03267624709872736</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B90">
-        <v>0.04230285833251236</v>
+        <v>0.1966491024813416</v>
       </c>
       <c r="C90">
-        <v>0.2558225794250515</v>
+        <v>0.332210601237554</v>
       </c>
       <c r="D90">
-        <v>0.2544945339857457</v>
+        <v>0.01094184544885686</v>
       </c>
       <c r="E90">
-        <v>-0.003475460855306617</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5">
+        <v>0.007393524470621955</v>
+      </c>
+      <c r="F90">
+        <v>-0.05030610199068729</v>
+      </c>
+      <c r="G90">
+        <v>0.0008795215439697196</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B91">
-        <v>-0.0014636826588392</v>
+        <v>0.2042363105548743</v>
       </c>
       <c r="C91">
-        <v>0.1826912941067235</v>
+        <v>-0.1415822785535881</v>
       </c>
       <c r="D91">
-        <v>-0.2212747403085467</v>
+        <v>0.02514794888335156</v>
       </c>
       <c r="E91">
-        <v>0.03463353320440744</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5">
+        <v>0.07558797783412381</v>
+      </c>
+      <c r="F91">
+        <v>-0.184353731225334</v>
+      </c>
+      <c r="G91">
+        <v>-0.003269911207473373</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B92">
-        <v>0.009211607183502059</v>
+        <v>0.2068786772191067</v>
       </c>
       <c r="C92">
-        <v>0.3289122560160963</v>
+        <v>0.2577991441580805</v>
       </c>
       <c r="D92">
-        <v>0.1275927883769966</v>
+        <v>0.04927154379507177</v>
       </c>
       <c r="E92">
-        <v>0.00244170773861683</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5">
+        <v>-0.001289078991177586</v>
+      </c>
+      <c r="F92">
+        <v>-0.1145782009910613</v>
+      </c>
+      <c r="G92">
+        <v>0.06435351092433973</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B93">
-        <v>0.03964621368403119</v>
+        <v>0.2246509836871056</v>
       </c>
       <c r="C93">
-        <v>0.2934511415775194</v>
+        <v>0.3339055673642926</v>
       </c>
       <c r="D93">
-        <v>0.2552663146879677</v>
+        <v>0.01862220474956082</v>
       </c>
       <c r="E93">
-        <v>0.02051219045358207</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5">
+        <v>-0.005482187892227568</v>
+      </c>
+      <c r="F93">
+        <v>-0.03057068162412829</v>
+      </c>
+      <c r="G93">
+        <v>-0.00110540975998089</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B94">
-        <v>0.02000195561225162</v>
+        <v>0.2848368927762606</v>
       </c>
       <c r="C94">
-        <v>0.2282618096624146</v>
+        <v>-0.1716790489913814</v>
       </c>
       <c r="D94">
-        <v>-0.2165988157476956</v>
+        <v>0.01358273800615268</v>
       </c>
       <c r="E94">
-        <v>0.08196858660876176</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5">
+        <v>0.09200532760108683</v>
+      </c>
+      <c r="F94">
+        <v>-0.4216403383914035</v>
+      </c>
+      <c r="G94">
+        <v>-0.1373473680651535</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B95">
-        <v>-0.006325148363836985</v>
+        <v>0.08708797831228707</v>
       </c>
       <c r="C95">
-        <v>0.04793464396920965</v>
+        <v>-0.07807142135189465</v>
       </c>
       <c r="D95">
-        <v>-0.07339436048051454</v>
+        <v>0.007569493373936693</v>
       </c>
       <c r="E95">
-        <v>0.1214974010434072</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5">
+        <v>-0.06484449710646549</v>
+      </c>
+      <c r="F95">
+        <v>0.196252934158031</v>
+      </c>
+      <c r="G95">
+        <v>-0.06549075891802676</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2326,10 +2902,16 @@
       <c r="E96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:5">
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2343,27 +2925,39 @@
       <c r="E97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:5">
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B98">
-        <v>0.005131923060919966</v>
+        <v>0.205775452435926</v>
       </c>
       <c r="C98">
-        <v>0.1651443241558334</v>
+        <v>-0.04710420369815857</v>
       </c>
       <c r="D98">
-        <v>-0.1079857817344144</v>
+        <v>0.0160099018726836</v>
       </c>
       <c r="E98">
-        <v>0.07389955280965077</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5">
+        <v>-0.04590074518490999</v>
+      </c>
+      <c r="F98">
+        <v>0.2593483229204837</v>
+      </c>
+      <c r="G98">
+        <v>-0.03126590271607243</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2377,10 +2971,16 @@
       <c r="E99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:5">
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2394,73 +2994,103 @@
       <c r="E100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:5">
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B101">
-        <v>0.007188472456493294</v>
+        <v>0.01343659817929329</v>
       </c>
       <c r="C101">
-        <v>0.01785915564941595</v>
+        <v>-0.02168509246793007</v>
       </c>
       <c r="D101">
-        <v>-0.01573036220496388</v>
+        <v>-0.007204559851074881</v>
       </c>
       <c r="E101">
-        <v>-0.004901772789670409</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5">
+        <v>0.008539319008505139</v>
+      </c>
+      <c r="F101">
+        <v>-0.01224914665027106</v>
+      </c>
+      <c r="G101">
+        <v>0.03090171924548218</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B102">
-        <v>0.01388116036439921</v>
+        <v>0.1214030492097967</v>
       </c>
       <c r="C102">
-        <v>0.1087901380052538</v>
+        <v>-0.08518398217196084</v>
       </c>
       <c r="D102">
-        <v>-0.114483493479334</v>
+        <v>-0.0004005419574410979</v>
       </c>
       <c r="E102">
-        <v>0.02625697587310856</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5">
+        <v>0.03542716770304616</v>
+      </c>
+      <c r="F102">
+        <v>-0.05541994465481278</v>
+      </c>
+      <c r="G102">
+        <v>-0.01022638422029429</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B103">
-        <v>0.00185074775488872</v>
+        <v>0.004514735560503791</v>
       </c>
       <c r="C103">
-        <v>0.01695093648062238</v>
+        <v>-0.005176794650960374</v>
       </c>
       <c r="D103">
-        <v>-0.02844653270165125</v>
+        <v>-0.0004402488426664937</v>
       </c>
       <c r="E103">
-        <v>-0.01085410785446779</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5">
+        <v>-0.001877843671640097</v>
+      </c>
+      <c r="F103">
+        <v>-0.00922219931306952</v>
+      </c>
+      <c r="G103">
+        <v>0.01768158410851835</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B104">
-        <v>0.9845897971764931</v>
+        <v>0.03501800834409944</v>
       </c>
       <c r="C104">
-        <v>-0.1093593602916835</v>
+        <v>0.04078400881113454</v>
       </c>
       <c r="D104">
-        <v>-0.002188274078306703</v>
+        <v>-0.9869898042639038</v>
       </c>
       <c r="E104">
-        <v>-0.0269339629251784</v>
+        <v>0.03661004395257188</v>
+      </c>
+      <c r="F104">
+        <v>-0.04519542680995453</v>
+      </c>
+      <c r="G104">
+        <v>-0.008117862993849496</v>
       </c>
     </row>
   </sheetData>
